--- a/data/income_statement/2digits/size/58_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/58_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>58-Publishing activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>58-Publishing activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,860 +841,970 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>434222.00257</v>
+        <v>457557.93269</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>475440.34374</v>
+        <v>510827.0024699999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>595832.4835</v>
+        <v>624407.2883200001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>626361.6176</v>
+        <v>656574.5931700001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>776674.67111</v>
+        <v>881998.70919</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>877926.91875</v>
+        <v>901585.4480600001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>977352.1545200001</v>
+        <v>1034002.39084</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1122756.56113</v>
+        <v>1187116.12245</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1350066.919</v>
+        <v>1425386.89468</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2118283.1075</v>
+        <v>2247821.28311</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2016677.23787</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2246737.18944</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2500143.948</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>421681.77232</v>
+        <v>445155.40075</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>460229.76041</v>
+        <v>495725.63026</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>575214.49327</v>
+        <v>602261.73797</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>606793.9697199999</v>
+        <v>636360.0582999999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>744551.76089</v>
+        <v>847492.4789499999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>856989.09948</v>
+        <v>880200.16339</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>953595.2215600001</v>
+        <v>1005631.10203</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1072475.92035</v>
+        <v>1134308.30121</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1301520.97286</v>
+        <v>1377638.50456</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1964847.04916</v>
+        <v>2082912.04785</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1938127.93576</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2150413.34009</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2347125.98</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>7088.391769999999</v>
+        <v>6991.980149999999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>9668.26107</v>
+        <v>9358.141</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>12120.96944</v>
+        <v>12657.3126</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>11479.60953</v>
+        <v>11662.60746</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>22574.95808</v>
+        <v>21999.06883</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>11947.1883</v>
+        <v>11013.41719</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>13923.59319</v>
+        <v>16101.50513</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>33543.66020000001</v>
+        <v>36318.82939</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>26170.38088</v>
+        <v>26596.95294</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>130891.0744</v>
+        <v>139098.36068</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>32613.65592</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>49725.52662</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>112277.378</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>5451.838479999999</v>
+        <v>5410.55179</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>5542.32226</v>
+        <v>5743.23121</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>8497.02079</v>
+        <v>9488.23775</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>8088.038350000001</v>
+        <v>8551.92741</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>9547.952140000001</v>
+        <v>12507.16141</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>8990.63097</v>
+        <v>10371.86748</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>9833.339769999999</v>
+        <v>12269.78368</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>16736.98058</v>
+        <v>16488.99185</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>22375.56526</v>
+        <v>21151.43718</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>22544.98394</v>
+        <v>25810.87458</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>45935.64619</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>46598.32273</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>40740.59</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>59158.81769</v>
+        <v>69943.91993999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>65045.73515</v>
+        <v>82118.31069</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>75049.75959999999</v>
+        <v>77080.66109000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>83361.67986</v>
+        <v>87861.27379000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>100416.38043</v>
+        <v>129089.40497</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>107318.33637</v>
+        <v>109360.37117</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>104530.32964</v>
+        <v>136599.96702</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>96553.18522</v>
+        <v>116281.76154</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>122975.76064</v>
+        <v>135243.72007</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>202693.21355</v>
+        <v>251527.171</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>168288.0829</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>188867.52898</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>207821.13</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>55203.13118</v>
+        <v>63497.86951</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>60749.85065</v>
+        <v>75350.52305</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>67460.62234</v>
+        <v>67930.24780999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>64189.40697</v>
+        <v>64876.77819</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>73829.50048999999</v>
+        <v>91563.22908</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>90562.66737000001</v>
+        <v>89954.25064</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>87861.39323999999</v>
+        <v>119294.03304</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>87621.77142999999</v>
+        <v>107186.76243</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>106485.2199</v>
+        <v>118230.12915</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>181381.77034</v>
+        <v>193907.9441</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>144973.39512</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>159467.61361</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>170480.888</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>3551.99422</v>
+        <v>6035.358139999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>3339.06424</v>
+        <v>5816.289330000001</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>5768.53908</v>
+        <v>7402.83823</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>16976.63686</v>
+        <v>20791.00595</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>26177.41249</v>
+        <v>36917.28337999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>16183.92117</v>
+        <v>18838.23785</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>15229.43723</v>
+        <v>15856.01722</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>7195.77104</v>
+        <v>7454.40906</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>13832.00551</v>
+        <v>14606.80251</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>15142.2393</v>
+        <v>50306.64425</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>20117.87489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>25793.86754</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>35359.33</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>403.69229</v>
+        <v>410.69229</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>956.82026</v>
+        <v>951.4983100000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1820.59818</v>
+        <v>1747.57505</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>2195.63603</v>
+        <v>2193.48965</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>409.46745</v>
+        <v>608.89251</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>571.7478299999999</v>
+        <v>567.8826800000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1439.49917</v>
+        <v>1449.91676</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1735.64275</v>
+        <v>1640.59005</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2658.53523</v>
+        <v>2406.78841</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>6169.20391</v>
+        <v>7312.58265</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>3196.81289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>3606.04783</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1980.912</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>375063.18488</v>
+        <v>387614.01275</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>410394.60859</v>
+        <v>428708.6917800001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>520782.7239</v>
+        <v>547326.62723</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>542999.93774</v>
+        <v>568713.31938</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>676258.2906800001</v>
+        <v>752909.30422</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>770608.58238</v>
+        <v>792225.07689</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>872821.82488</v>
+        <v>897402.42382</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1026203.37591</v>
+        <v>1070834.36091</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1227091.15836</v>
+        <v>1290143.17461</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1915589.89395</v>
+        <v>1996294.11211</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1848389.15497</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2057869.66046</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2292322.818</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>263626.07492</v>
+        <v>266772.00995</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>290379.10994</v>
+        <v>298150.53272</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>364859.60699</v>
+        <v>384571.49102</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>370238.84687</v>
+        <v>382369.23155</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>454151.03657</v>
+        <v>504962.0112899999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>529638.72137</v>
+        <v>536042.2030399999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>588745.91744</v>
+        <v>615853.0972000001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>731596.95066</v>
+        <v>774352.47089</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>893298.8347199999</v>
+        <v>943184.50784</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1425268.99176</v>
+        <v>1479723.19204</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1367277.36212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1502052.23384</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1645126.072</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>102905.93157</v>
+        <v>102403.36859</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>103506.88074</v>
+        <v>106723.13338</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>129566.78233</v>
+        <v>138470.35121</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>153569.87386</v>
+        <v>160258.80516</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>175518.67068</v>
+        <v>201623.34265</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>196655.91994</v>
+        <v>201427.82248</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>233507.15911</v>
+        <v>245434.54951</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>218824.78882</v>
+        <v>234721.63123</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>247699.75921</v>
+        <v>275823.73835</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>546492.90796</v>
+        <v>594800.57021</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>584963.1466800001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>635557.49223</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>644595.197</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>103561.87803</v>
+        <v>102943.90032</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>127529.83175</v>
+        <v>131889.9191</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>149137.27692</v>
+        <v>150008.24833</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>111049.83781</v>
+        <v>115707.08909</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>128696.44751</v>
+        <v>149076.18972</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>139870.62901</v>
+        <v>147556.20597</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>133069.18498</v>
+        <v>138331.44153</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>235031.06991</v>
+        <v>250119.89424</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>354060.25579</v>
+        <v>361591.96303</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>533201.08999</v>
+        <v>540632.05348</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>466178.26871</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>539521.4733099999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>520449.155</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>56845.77097</v>
+        <v>60988.30365</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>59149.67670999999</v>
+        <v>59344.07853</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>85543.26012000001</v>
+        <v>95473.46573000001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>103869.06376</v>
+        <v>104602.13711</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>148648.41735</v>
+        <v>152091.38836</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>192080.91204</v>
+        <v>186159.7312</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>215839.71555</v>
+        <v>226286.19566</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>273121.6945</v>
+        <v>284516.07328</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>289771.56317</v>
+        <v>303717.28085</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>341808.29185</v>
+        <v>339602.28087</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>306027.34115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>316835.90949</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>475414.452</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>312.49435</v>
+        <v>436.43739</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>192.72074</v>
+        <v>193.40171</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>612.2876199999999</v>
+        <v>619.42575</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1750.07144</v>
+        <v>1801.20019</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1287.50103</v>
+        <v>2171.09056</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1031.26038</v>
+        <v>898.44339</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>6329.8578</v>
+        <v>5800.9105</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>4619.39743</v>
+        <v>4994.872139999999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1767.25655</v>
+        <v>2051.52561</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>3766.70196</v>
+        <v>4688.287480000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>10108.60558</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>10137.35881</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>4667.268</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>111437.10996</v>
+        <v>120842.0028</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>120015.49865</v>
+        <v>130558.15906</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>155923.11691</v>
+        <v>162755.13621</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>172761.09087</v>
+        <v>186344.08783</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>222107.25411</v>
+        <v>247947.29293</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>240969.86101</v>
+        <v>256182.87385</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>284075.90744</v>
+        <v>281549.32662</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>294606.42525</v>
+        <v>296481.89002</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>333792.32364</v>
+        <v>346958.6667700001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>490320.90219</v>
+        <v>516570.9200700001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>481111.79285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>555817.42662</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>647196.746</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>102869.2342</v>
+        <v>112540.20109</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>99315.68640999999</v>
+        <v>110488.96818</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>131005.51492</v>
+        <v>139917.38766</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>141852.4662</v>
+        <v>148788.90624</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>178914.60201</v>
+        <v>200483.97023</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>203134.95456</v>
+        <v>219435.78421</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>225940.24898</v>
+        <v>244546.384</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>251700.22956</v>
+        <v>260672.69314</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>276961.4045300001</v>
+        <v>287849.66399</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>391986.79298</v>
+        <v>404112.47084</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>375073.7579</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>399205.4168300001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>456202.63</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>2189.88909</v>
+        <v>3494.52202</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1041.55894</v>
+        <v>2511.02535</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1231.7914</v>
+        <v>1267.6826</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1985.95611</v>
+        <v>2045.24988</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1163.25293</v>
+        <v>580.42728</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>494.42873</v>
+        <v>565.20111</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>66.73667999999999</v>
+        <v>113.32321</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1151.84609</v>
+        <v>1204.22653</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1207.48312</v>
+        <v>1668.04957</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>339.00671</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>2200.7736</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2189.4286</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>4180.791</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>33185.14612</v>
+        <v>40541.81066</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>25246.05016</v>
+        <v>33196.52066</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>39620.45859</v>
+        <v>42069.93507</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>43465.27172999999</v>
+        <v>47135.36357</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>57695.85998</v>
+        <v>67131.14512</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>58354.0009</v>
+        <v>59568.22037</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>64258.41328</v>
+        <v>71561.05456999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>64054.25781</v>
+        <v>68868.92715999999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>70947.74523999999</v>
+        <v>75526.66389999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>108085.14963</v>
+        <v>121419.86934</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>115948.48847</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>132286.70667</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>171709.523</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>67494.19898999999</v>
+        <v>68503.86841</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>73028.07731000001</v>
+        <v>74781.42217000001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>90153.26492999999</v>
+        <v>96579.76999000002</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>96401.23836</v>
+        <v>99608.29278999999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>120055.4891</v>
+        <v>132772.39783</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>144286.52493</v>
+        <v>159302.36273</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>161615.09902</v>
+        <v>172872.00622</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>186494.12566</v>
+        <v>190599.53945</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>204806.17617</v>
+        <v>210654.95052</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>283562.63664</v>
+        <v>282353.59479</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>256924.49583</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>264729.28156</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>280312.316</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>8567.875759999999</v>
+        <v>8301.801710000002</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>20699.81224</v>
+        <v>20069.19088</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>24917.60199</v>
+        <v>22837.74855</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>30908.62467</v>
+        <v>37555.18158999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>43192.6521</v>
+        <v>47463.3227</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>37834.90645</v>
+        <v>36747.08964</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>58135.65846</v>
+        <v>37002.94262</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>42906.19569000001</v>
+        <v>35809.19688</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>56830.91911</v>
+        <v>59109.00278</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>98334.10921000001</v>
+        <v>112458.44923</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>106038.03495</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>156612.00979</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>190994.116</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>5678.89454</v>
+        <v>6985.27825</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>4459.567950000001</v>
+        <v>7182.719950000001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>5821.10725</v>
+        <v>9042.416719999999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>5136.11031</v>
+        <v>7532.700140000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>9281.683440000001</v>
+        <v>18254.71207</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>10032.54273</v>
+        <v>13270.85484</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>12995.17071</v>
+        <v>28684.61031</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>16566.67628</v>
+        <v>15882.70135</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>16276.15719</v>
+        <v>23958.63481</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>61444.61683</v>
+        <v>63916.75513</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>46835.67023</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>50520.08501</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>108124.777</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>59.83386</v>
+        <v>25.35786</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>16.78291</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>136.3234</v>
+        <v>137.21427</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>514.3814600000001</v>
+        <v>501.17085</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>325.22745</v>
+        <v>3187.92319</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>566.3219300000001</v>
+        <v>1114.76001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>564.58393</v>
+        <v>1076.42875</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>317.3305</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1268.02971</v>
+        <v>1267.17638</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>43.57509</v>
@@ -1801,20 +1812,25 @@
       <c r="M26" s="48" t="n">
         <v>84.49071000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>22.749</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>3.95823</v>
+        <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>12.98617</v>
+        <v>9.81169</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>16.13605</v>
+        <v>17.29616</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>0.67365</v>
@@ -1840,77 +1856,87 @@
       <c r="M27" s="48" t="n">
         <v>377.09946</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>29179.78</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1494.44738</v>
+        <v>1738.65325</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1707.66787</v>
+        <v>1679.31131</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1247.63915</v>
+        <v>2233.91775</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1065.60473</v>
+        <v>2200.29942</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2108.24945</v>
+        <v>6191.734489999999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>2017.70666</v>
+        <v>4313.30246</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2332.70046</v>
+        <v>5135.15395</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1957.34878</v>
+        <v>3167.27462</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>3723.51985</v>
+        <v>5311.59067</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>10078.94511</v>
+        <v>13465.5281</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>9199.558300000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>9551.314040000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>15741.968</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>42.6581</v>
+        <v>39.76946</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>3.83764</v>
+        <v>3.8164</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>21.71606</v>
+        <v>24.07464</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>2.45696</v>
+        <v>3.27356</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>5.982699999999999</v>
+        <v>28.16123</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1.51013</v>
+        <v>1.46063</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>14.42029</v>
+        <v>2500.77372</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>5.00261</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>26.72968</v>
+        <v>179.24803</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>10.02245</v>
@@ -1918,167 +1944,192 @@
       <c r="M29" s="48" t="n">
         <v>10.72719</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>83.867</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>143.10264</v>
+        <v>130.65513</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>202.91486</v>
+        <v>186.03164</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>141.77037</v>
+        <v>160.90259</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>278.89438</v>
+        <v>171.71528</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>95.74001</v>
+        <v>269.72223</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>253.0908</v>
+        <v>536.18788</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>208.14303</v>
+        <v>251.53844</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>327.36265</v>
+        <v>334.6269</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>485.89227</v>
+        <v>380.70605</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>394.44181</v>
+        <v>328.0342199999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>273.2827</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1617.14364</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>5614.478</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>281.2100799999999</v>
+        <v>144.7088</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>171.91008</v>
+        <v>125.693</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>67.53065999999998</v>
+        <v>93.01533999999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>337.02326</v>
+        <v>339.49751</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>258.33806</v>
+        <v>265.6448</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>347.48841</v>
+        <v>729.8165300000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>303.58331</v>
+        <v>921.2573799999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1306.60258</v>
+        <v>535.61951</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>565.14487</v>
+        <v>4054.68714</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>670.1919099999999</v>
+        <v>614.0857099999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1563.80156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>885.46178</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1159.538</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2639.49881</v>
+        <v>3283.61685</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1368.85186</v>
+        <v>3622.9029</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1955.14057</v>
+        <v>4266.20625</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1196.99559</v>
+        <v>2385.20842</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>3414.20102</v>
+        <v>3847.78896</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2036.65761</v>
+        <v>1967.41808</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>6333.88609</v>
+        <v>14555.72674</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>6098.10981</v>
+        <v>5590.409070000001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>5834.721570000001</v>
+        <v>6171.17136</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>43467.64781</v>
+        <v>41604.64819</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>14261.29338</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>13268.19061</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>47047.766</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>0</v>
+        <v>252.27432</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>19.06971</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>13.61664</v>
+        <v>24.87151</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>1.32728</v>
+        <v>66.85491999999999</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>76.43116000000001</v>
+        <v>281.01197</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>54.84428</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>24.15681</v>
+        <v>24.13441</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>0.8569600000000001</v>
+        <v>0</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>0</v>
+        <v>216.77189</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>144.24313</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>531.1981500000001</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>1267.337</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2096,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>0</v>
@@ -2113,173 +2164,198 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1014.18544</v>
+        <v>1370.24258</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>954.01026</v>
+        <v>1517.7638</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2221.23435</v>
+        <v>2084.91821</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1733.71795</v>
+        <v>1858.97148</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>2994.46847</v>
+        <v>4179.68008</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>4754.772910000001</v>
+        <v>4553.064969999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>3213.69679</v>
+        <v>4219.59692</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>6512.30328</v>
+        <v>5890.67903</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>4172.11924</v>
+        <v>6394.055179999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>6779.792649999999</v>
+        <v>7634.089480000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>20921.1738</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>24194.45943</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>8007.294</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>5335.232410000001</v>
+        <v>6809.093880000001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>4137.37437</v>
+        <v>6392.47729</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>6185.80814</v>
+        <v>11374.72247</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>4378.19012</v>
+        <v>4973.59834</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>7112.822440000001</v>
+        <v>9449.995349999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>10937.62696</v>
+        <v>8208.49502</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>9591.16474</v>
+        <v>27849.33289</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>8917.841370000002</v>
+        <v>15666.58197</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>7263.28717</v>
+        <v>10086.73512</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>50910.41686</v>
+        <v>62045.44645</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>43041.57095</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>44100.51447000001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>49167.357</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>534.9783299999999</v>
+        <v>795.61169</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>474.01552</v>
+        <v>653.10389</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>760.15971</v>
+        <v>1139.97985</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>944.05164</v>
+        <v>946.42828</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1101.70277</v>
+        <v>1142.03139</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1806.12396</v>
+        <v>1816.81189</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>988.3429199999999</v>
+        <v>1183.86476</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>901.0843899999999</v>
+        <v>1000.13202</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>887.2908899999999</v>
+        <v>1112.48901</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>863.1836199999999</v>
+        <v>871.01554</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1128.52659</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1161.37341</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>3083.161</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1746.24171</v>
+        <v>1901.5376</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1775.5975</v>
+        <v>1610.8052</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1218.19704</v>
+        <v>1160.0762</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1727.92194</v>
+        <v>1772.32328</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1811.09212</v>
+        <v>2204.36551</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1719.66046</v>
+        <v>2149.42672</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1938.74787</v>
+        <v>2339.83881</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2372.24066</v>
+        <v>7796.79102</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>2133.2674</v>
+        <v>2775.51676</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>10736.83839</v>
+        <v>10767.44057</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>5935.527829999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>5520.170659999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>5775.878</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>28.34299</v>
+        <v>1.40885</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>21.18437</v>
+        <v>38.00021000000001</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>0</v>
@@ -2291,109 +2367,124 @@
         <v>297.46755</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>4258.845569999999</v>
+        <v>28.71634</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>104.5468</v>
+        <v>554.5303699999999</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>8.43801</v>
+        <v>277.68291</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>31.48621</v>
+        <v>1689.68788</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>187.68847</v>
+        <v>10284.57232</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>2.61001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>2.56606</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>30.967</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1690.68578</v>
+        <v>2715.43206</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1051.45985</v>
+        <v>3300.20419</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2297.73924</v>
+        <v>7059.265939999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1104.93614</v>
+        <v>1531.95171</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>3397.93362</v>
+        <v>5157.250410000001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2195.17478</v>
+        <v>2407.72499</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>5423.06376</v>
+        <v>23035.93083</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3688.79197</v>
+        <v>4456.460139999999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>3795.75726</v>
+        <v>4178.18926</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>35611.1832</v>
+        <v>36462.65329</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>14706.73145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>12840.92079</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>34269.643</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>19.06971</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>6.30941</v>
+        <v>31.18092</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>7.92184</v>
+        <v>66.14225</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>9.11018</v>
+        <v>76.55763</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>50.43383</v>
+        <v>172.72946</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>97.89888000000001</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>0.38512</v>
+        <v>0</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>0.0224</v>
+        <v>0</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>0.47184</v>
+        <v>0</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>144.24313</v>
+        <v>361.50128</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1672.747</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>9.32203</v>
+        <v>0</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>0</v>
@@ -2425,377 +2516,427 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1306.59186</v>
+        <v>1376.03397</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>808.80772</v>
+        <v>759.18288</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1901.79031</v>
+        <v>1949.25823</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>355.90619</v>
+        <v>410.07341</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>454.19255</v>
+        <v>476.15103</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>859.92331</v>
+        <v>1707.9162</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1136.07827</v>
+        <v>735.16812</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1925.56904</v>
+        <v>2113.82098</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>415.01357</v>
+        <v>330.85221</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>3367.28005</v>
+        <v>3298.26345</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>21268.17507</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>24575.48355</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>4334.961</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>7532.34491</v>
+        <v>9931.970449999999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>4734.27067</v>
+        <v>6341.658699999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>7257.26283</v>
+        <v>9055.250390000001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>6863.620089999999</v>
+        <v>8531.792959999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>9123.174570000001</v>
+        <v>12913.14758</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>9151.442489999999</v>
+        <v>21848.6141</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>8392.06782</v>
+        <v>34182.55096</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>10692.97344</v>
+        <v>12902.98142</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>17302.09117</v>
+        <v>20574.6326</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>40597.18900999999</v>
+        <v>47819.11541</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>44469.00082</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>50276.87308</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>45945.22</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>7031.80491</v>
+        <v>7685.88521</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>4601.45234</v>
+        <v>4711.301130000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>7124.167409999999</v>
+        <v>7462.777139999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>6747.9925</v>
+        <v>6811.821180000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>8989.16625</v>
+        <v>11971.70583</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>8997.369409999999</v>
+        <v>21073.11395</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>8295.8482</v>
+        <v>34111.96392</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>10586.53802</v>
+        <v>12851.89442</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>17094.60092</v>
+        <v>20499.29397</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>40136.35113</v>
+        <v>47578.98832</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>42956.8678</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>49885.62852</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>45897.874</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>500.54</v>
+        <v>2246.08524</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>132.81833</v>
+        <v>1630.35757</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>133.09542</v>
+        <v>1592.47325</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>115.62759</v>
+        <v>1719.97178</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>134.00832</v>
+        <v>941.44175</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>154.07308</v>
+        <v>775.5001500000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>96.21961999999999</v>
+        <v>70.58704</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>106.43542</v>
+        <v>51.087</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>207.49025</v>
+        <v>75.33863000000001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>460.83788</v>
+        <v>240.12709</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1512.13302</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>391.24456</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>47.346</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>1379.19298</v>
+        <v>-1453.98437</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>16287.73515</v>
+        <v>14517.77484</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>17295.63827</v>
+        <v>11450.19241</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>24802.92477</v>
+        <v>31582.49043</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>36238.33853</v>
+        <v>43354.89184</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>27778.37973</v>
+        <v>19960.83536</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>53147.59661</v>
+        <v>3655.66908</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>39862.05716</v>
+        <v>23122.33484</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>48541.69796</v>
+        <v>52406.26987</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>68271.12016999999</v>
+        <v>66510.6425</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>65363.13341</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>112754.70725</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>204006.316</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2850.84589</v>
+        <v>2766.34764</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>2810.74665</v>
+        <v>2483.05352</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>2158.5438</v>
+        <v>2534.18255</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>3019.24845</v>
+        <v>16371.22453</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>3092.66424</v>
+        <v>3699.36362</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>10677.71462</v>
+        <v>15480.86574</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>7131.48305</v>
+        <v>10472.87919</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>15118.87153</v>
+        <v>12676.87409</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>8084.34512</v>
+        <v>18711.37687</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>16732.59584</v>
+        <v>16223.41539</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>20798.21453</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>23924.81056</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>15040.783</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>68.12685</v>
+        <v>50.34433</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>25.08531</v>
+        <v>23.99228</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>119.71402</v>
+        <v>55.09066000000001</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>25.28807</v>
+        <v>469.17385</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1.70312</v>
+        <v>528.82928</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>48.81385</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>92.62720999999999</v>
+        <v>91.27128</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>265.48662</v>
+        <v>269.07844</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>89.17491</v>
+        <v>189.29054</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>90.69575</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>96.92581</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>80.2679</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>40.43</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2782.71904</v>
+        <v>2716.00331</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>2785.66134</v>
+        <v>2459.06124</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>2038.82978</v>
+        <v>2479.09189</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>2993.96038</v>
+        <v>15902.05068</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>3090.96112</v>
+        <v>3170.53434</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>10628.90077</v>
+        <v>15432.05189</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>7038.855840000001</v>
+        <v>10381.60791</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>14853.38491</v>
+        <v>12407.79565</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>7995.17021</v>
+        <v>18522.08633</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>16641.90009</v>
+        <v>16132.71964</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>20701.28872</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>23844.54266</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>15000.353</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>2702.47812</v>
+        <v>3360.47377</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>3637.81462</v>
+        <v>4096.7498</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>45209.1481</v>
+        <v>51778.82491999999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>3512.9503</v>
+        <v>3496.9962</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>3593.65328</v>
+        <v>4300.02621</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>27554.567</v>
+        <v>27342.82324</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>5427.77649</v>
+        <v>4649.299390000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>45073.93234000001</v>
+        <v>50700.54964</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>10070.19187</v>
+        <v>39567.88211</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>31852.67052</v>
+        <v>31642.58013</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>13867.4833</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>23270.96387</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>48928.548</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>111.82719</v>
+        <v>92.83750999999999</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2.2936</v>
+        <v>215</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1.04681</v>
+        <v>2.74681</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>373.92047</v>
+        <v>377.02047</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>1.45567</v>
@@ -2804,214 +2945,242 @@
         <v>2.36646</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2.25</v>
+        <v>0.00032</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>8.780190000000001</v>
+        <v>8.68519</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>180.73571</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>4.00795</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>411.93123</v>
+        <v>386.27427</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>237.23171</v>
+        <v>440.00885</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>318.2335</v>
+        <v>343.15118</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>46.94455</v>
+        <v>69.27368</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>228.35541</v>
+        <v>299.82982</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>133.18638</v>
+        <v>299.98916</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>68.0658</v>
+        <v>69.65992</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>585.11616</v>
+        <v>590.67486</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1096.66796</v>
+        <v>1084.21813</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>639.95691</v>
+        <v>434.25933</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>247.54676</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>232.64426</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>943.687</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>2178.7197</v>
+        <v>2881.36199</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>3398.28931</v>
+        <v>3441.74095</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>44889.86779</v>
+        <v>51432.92693</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>3092.08528</v>
+        <v>3050.70205</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>3365.29787</v>
+        <v>3996.71639</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>27419.92495</v>
+        <v>27041.37841</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>5357.344230000001</v>
+        <v>4577.273010000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>44486.56618</v>
+        <v>50109.87446</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>8964.743719999999</v>
+        <v>38474.97879</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>31212.71361</v>
+        <v>31208.3208</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>13439.20083</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>23034.31166</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>47984.861</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1527.56075</v>
+        <v>-2048.1105</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>15460.66718</v>
+        <v>12904.07856</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-25754.96603</v>
+        <v>-37794.44996</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>24309.22292</v>
+        <v>44456.71876</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>35737.34948999999</v>
+        <v>42754.22925</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>10901.52735</v>
+        <v>8098.87786</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>54851.30317</v>
+        <v>9479.248880000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>9906.996349999999</v>
+        <v>-14901.34071</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>46555.85121</v>
+        <v>31549.76463</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>53151.04549</v>
+        <v>51091.47776000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>72293.86464</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>113408.55394</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>170118.551</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2997.6067</v>
+        <v>3099.37293</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>4585.230320000001</v>
+        <v>4506.0732</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>5612.56784</v>
+        <v>5604.33211</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>8698.403859999999</v>
+        <v>8905.343790000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>9819.041220000001</v>
+        <v>11295.05696</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>10786.93589</v>
+        <v>11144.77631</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>11678.26495</v>
+        <v>11965.71876</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>13340.96875</v>
+        <v>12800.4686</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>13803.98088</v>
+        <v>14115.35938</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>20535.73391</v>
+        <v>20608.13883</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>23076.47298</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>29385.30082</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>44208.657</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-1470.04595</v>
+        <v>-5147.483429999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>10875.43686</v>
+        <v>8398.005359999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-31367.53387</v>
+        <v>-43398.78207000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>15610.81906</v>
+        <v>35551.37497</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>25918.30827</v>
+        <v>31459.17229</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>114.59146</v>
+        <v>-3045.89845</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>43173.03822</v>
+        <v>-2486.46988</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-3433.9724</v>
+        <v>-27701.80931</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>32751.87033</v>
+        <v>17434.40525</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>32615.31158</v>
+        <v>30483.33893</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>49217.39166</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>84023.25312000001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>125909.894</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>431</v>
+        <v>370</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>481</v>
+        <v>406</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>511</v>
+        <v>421</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>551</v>
+        <v>438</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>590</v>
+        <v>472</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>379</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>